--- a/experiments/results/experiment3/avg_tables/average_kendall_tau_n100.xlsx
+++ b/experiments/results/experiment3/avg_tables/average_kendall_tau_n100.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/experiments/results/experiment3/avg_tables/average_kendall_tau_n100.xlsx
+++ b/experiments/results/experiment3/avg_tables/average_kendall_tau_n100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,66 +453,88 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>rep-insertion</t>
+          <t>rep-quick</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49.79885</v>
+        <v>156.43945</v>
       </c>
       <c r="C2" t="n">
-        <v>212.52065</v>
+        <v>374.9891749999999</v>
       </c>
       <c r="D2" t="n">
-        <v>384.725175</v>
+        <v>536.1721250000001</v>
       </c>
       <c r="E2" t="n">
-        <v>667.87465</v>
+        <v>755.5452499999999</v>
       </c>
       <c r="F2" t="n">
-        <v>2165.240625</v>
+        <v>2109.805775</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>rep-quick-rep-insertion-1</t>
+          <t>rep-insertion</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.167225</v>
+        <v>49.79885</v>
       </c>
       <c r="C3" t="n">
-        <v>303.526325</v>
+        <v>212.52065</v>
       </c>
       <c r="D3" t="n">
-        <v>467.0488249999999</v>
+        <v>384.725175</v>
       </c>
       <c r="E3" t="n">
-        <v>702.6280249999999</v>
+        <v>667.87465</v>
       </c>
       <c r="F3" t="n">
-        <v>2151.4507</v>
+        <v>2165.240625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>rep-quick-rep-insertion-1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>117.167225</v>
+      </c>
+      <c r="C4" t="n">
+        <v>303.526325</v>
+      </c>
+      <c r="D4" t="n">
+        <v>467.0488249999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>702.6280249999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2151.4507</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>rep-quick-rep-insertion-2</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>103.681125</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>287.96725</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>441.997925</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>693.1132250000001</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>2144.196475</v>
       </c>
     </row>
